--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\Desktop\TBR_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB71E435-CD86-438B-9408-D24E713C1E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59699647-8965-47DB-BC59-087208413274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,16 +503,13 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G80"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="7" width="22" customWidth="1"/>
+    <col min="2" max="7" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
